--- a/biology/Médecine/UZ_Brussel/UZ_Brussel.xlsx
+++ b/biology/Médecine/UZ_Brussel/UZ_Brussel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Universitair Ziekenhuis Brussel, en abrégé UZ Brussel, est un établissement hospitalier de Bruxelles dépendant de la Vrije Universiteit Brussel (VUB). L'hôpital était dénommé Academisch Ziekenhuis VUB ou AZ-VUB par le passé.
@@ -514,9 +526,11 @@
           <t>Chiffres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital employait 3 405 travailleurs en 2012[1] (2 965 équivalents temps plein). Il se compose de 721 lits[2]. Il accueille[Quand ?] environ 25 000 admissions[2] par an et 400 000 patients ambulatoires[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital employait 3 405 travailleurs en 2012 (2 965 équivalents temps plein). Il se compose de 721 lits. Il accueille[Quand ?] environ 25 000 admissions par an et 400 000 patients ambulatoires.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital contient des services de soins pour adultes et pour enfants, ainsi qu'une polyclinique. C'est surtout le centre de médecine pour la reproduction (Centrum voor Reproductieve Geneeskunde) qui est reconnu internationalement en raison de son rôle pionnier dans les techniques reproductives. Ainsi, le centre a développé la technique d'Injection intracytoplasmique de spermatozoïde. Le service des urgences de l'hôpital est considéré comme le plus grand service d'urgences de Flandres.
 </t>
@@ -576,9 +592,11 @@
           <t>Controverse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fin 2022, alors qu’elle était sur le point d’accoucher, une demandeuse d'asile s'est vu refuser l'entrée à l'UZ Brussel, faute de pouvoir payer un acompte de 2.000 euros cash. L'hôpital universitaire regrette l'incident et a depuis sanctionné le membre du personnel ayant refusé l'admission de la femme enceinte. La femme a finalement donné naissance à son bébé à l'hôpital universitaire Brugmann de Laeken [3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin 2022, alors qu’elle était sur le point d’accoucher, une demandeuse d'asile s'est vu refuser l'entrée à l'UZ Brussel, faute de pouvoir payer un acompte de 2.000 euros cash. L'hôpital universitaire regrette l'incident et a depuis sanctionné le membre du personnel ayant refusé l'admission de la femme enceinte. La femme a finalement donné naissance à son bébé à l'hôpital universitaire Brugmann de Laeken ,.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il y a trois arrêts de bus pour l'UZ Brussel :
 "UZ-Pédiatrie" : ligne 9 du tramway de Bruxelles, lignes 13 et 88 des autobus de Bruxelles et bus 820 de De Lijn.
@@ -640,10 +660,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les personnalités suivantes sont ou ont été en rapport avec l'UZ Brussel : 
-Mbark Boussoufa (1984) : ce footballeur a fait un don de 10 000 € en 2012 à la clinique pour enfants de l'UZ Brussel[5]
+Mbark Boussoufa (1984) : ce footballeur a fait un don de 10 000 € en 2012 à la clinique pour enfants de l'UZ Brussel
 Pedro Brugada (nl) (1952), cardiologue, responsable du centre de gestion du rythme cardiaque à l'UZ Brussel
 Erik Derycke (1949), personnalité politique (BWP), Président du Conseil d'administration de l'UZ Brussel
 Willy Gepts (de) (1922–1991), pathologiste et diabétologue, chef de service de pathologie à l'UZ Brussel
